--- a/Progress Reports/CS2 Project Progress Report 1.xlsx
+++ b/Progress Reports/CS2 Project Progress Report 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC 10\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7583EFA9-333A-4455-B9D3-C82A93BFC386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB32BB17-CCC6-4B1F-940C-8813636FA440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week1" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,11 @@
     <sheet name="week4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>Computer Science 2 Project</t>
   </si>
@@ -82,6 +77,54 @@
   </si>
   <si>
     <t>Brillo, Lionel</t>
+  </si>
+  <si>
+    <t>To start making a code draft of our project menu</t>
+  </si>
+  <si>
+    <t>To make a flowchart for each specific part of our code</t>
+  </si>
+  <si>
+    <t>Time Management</t>
+  </si>
+  <si>
+    <t>Bugs and loopholed to fix because of how people might accidentally use our program and the things they input might cause error(e.g decimals, etc.)</t>
+  </si>
+  <si>
+    <t>We do our individual parts of the code so all of us have contribution and the parts we were assigned to is in our specialty</t>
+  </si>
+  <si>
+    <t>Good communication in making the code draft</t>
+  </si>
+  <si>
+    <t>We check up on each other regularly to make sure we did our parts</t>
+  </si>
+  <si>
+    <t>We help each other out when one has a problem on their part of the code</t>
+  </si>
+  <si>
+    <t>The reason why some parts of our code was not working is becausee we need more advanced commands to do what we want to do</t>
+  </si>
+  <si>
+    <t>The need to change the title for our program because our teacher complained it was too generic</t>
+  </si>
+  <si>
+    <t>The use of loops and nested loops like the for and while loops for parts of our code that would work better with them</t>
+  </si>
+  <si>
+    <t>We improve our time management for the project because we are constantly having different activities and quizzes from other subjects</t>
+  </si>
+  <si>
+    <t>to make a pseudocode for how the users input will move the program</t>
+  </si>
+  <si>
+    <t>Finished our code draft</t>
+  </si>
+  <si>
+    <t>Finished our flowcharts</t>
+  </si>
+  <si>
+    <t>Finished our pseudocode</t>
   </si>
 </sst>
 </file>
@@ -298,14 +341,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -315,7 +358,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -559,8 +602,8 @@
   </sheetPr>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -570,7 +613,7 @@
     <col min="3" max="3" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -589,7 +632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -597,7 +640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -605,7 +648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -616,135 +659,167 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="3"/>
       <c r="C19" s="19"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
+    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="C22" s="17"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="C23" s="17"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="C24" s="17"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="C25" s="17"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="3"/>
       <c r="C26" s="19"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
+    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
+    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="C29" s="17"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="C30" s="17"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="C31" s="17"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="C32" s="17"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="C33" s="17"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
       <c r="B34" s="3"/>
       <c r="C34" s="19"/>
@@ -770,7 +845,7 @@
     <col min="3" max="3" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,19 +854,19 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -799,7 +874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -810,135 +885,135 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="3"/>
       <c r="C19" s="19"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="C22" s="17"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="C23" s="17"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="C24" s="17"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="C25" s="17"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="3"/>
       <c r="C26" s="19"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="C29" s="17"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="C30" s="17"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="C31" s="17"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="C32" s="17"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="C33" s="17"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
       <c r="B34" s="3"/>
       <c r="C34" s="19"/>
@@ -964,7 +1039,7 @@
     <col min="3" max="3" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -973,19 +1048,19 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -993,7 +1068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1004,135 +1079,135 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="3"/>
       <c r="C19" s="19"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="C22" s="17"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="C23" s="17"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="C24" s="17"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="C25" s="17"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="3"/>
       <c r="C26" s="19"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="C29" s="17"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="C30" s="17"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="C31" s="17"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="C32" s="17"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="C33" s="17"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
       <c r="B34" s="3"/>
       <c r="C34" s="19"/>
@@ -1158,7 +1233,7 @@
     <col min="3" max="3" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1167,19 +1242,19 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1187,7 +1262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
@@ -1198,136 +1273,136 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="3"/>
       <c r="C19" s="19"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="C22" s="17"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="C23" s="17"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="C24" s="17"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="C25" s="17"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="3"/>
       <c r="C26" s="19"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="C29" s="17"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="C30" s="17"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="C31" s="17"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="C32" s="17"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="C33" s="17"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
       <c r="B34" s="3"/>
       <c r="C34" s="19"/>
